--- a/biology/Botanique/Aphandra/Aphandra.xlsx
+++ b/biology/Botanique/Aphandra/Aphandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Aphandra est un genre de plantes de la famille des arécacées (palmiers) que l'on peut trouver de l'est de l'Équateur et du nord du Pérou jusqu'à l'ouest du Brésil. Ce genre contient l'unique espèce suivante :
 Aphandra natalia</t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille : Arecaceae
 Sous-famille : Ceroxyloideae
